--- a/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
+++ b/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="3645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,15 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>title</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,11 +351,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>